--- a/Nvprof summary/similarity results/trans-Similarity.xlsx
+++ b/Nvprof summary/similarity results/trans-Similarity.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyc/Documents/Github/GPU-DATA-PLACEMENT/Nvprof summary/newsimilarity results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyc/Documents/Github/GPU-DATA-PLACEMENT/Nvprof summary/similarity results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="780" windowWidth="24960" windowHeight="14820" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="640" yWindow="780" windowWidth="24960" windowHeight="14820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Events" sheetId="6" r:id="rId1"/>
@@ -4352,8 +4352,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCellId="1" sqref="K1:L1048576 A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61:G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4793,25 +4794,25 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>1.1312500000000001</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>2.0382500000000001</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>7.2227E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>0.78017199999999998</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>0.25329000000000002</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>2.2340040000000001</v>
       </c>
       <c r="H11" s="2">
@@ -4836,25 +4837,25 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>0.73809499999999995</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>1.4761899999999999</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
         <v>4.1667000000000003E-2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>4.1667000000000003E-2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>0.76190500000000005</v>
       </c>
       <c r="H12" s="2">
@@ -6943,25 +6944,25 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>103219200</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>51609600</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2">
         <v>68812800</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <v>49152</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="2">
         <v>14745600</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="2">
         <v>12902400</v>
       </c>
       <c r="H61" s="2">
@@ -6986,25 +6987,25 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
         <v>219985893</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
         <v>156802891</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="2">
         <v>73782965</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2">
         <v>87499</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="2">
         <v>18480514</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="2">
         <v>41726413</v>
       </c>
       <c r="H62" s="2">
@@ -7884,7 +7885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B12"/>
     </sheetView>
   </sheetViews>
